--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造06.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造06.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>u32</t>
     <phoneticPr fontId="2"/>
@@ -40,9 +40,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算式データ数</t>
+    <t>文字列データ数</t>
     <rPh sb="0" eb="3">
-      <t>ケイサンシキ</t>
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>スウ</t>
@@ -50,27 +50,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算式データ[n]</t>
+    <t>文字列データ[n]</t>
     <rPh sb="0" eb="3">
-      <t>ケイサンシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T_EXPR[n]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※T_EXPRは可変長データ</t>
-    <rPh sb="8" eb="11">
-      <t>カヘンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※計算式データ数分続く…</t>
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※文字列データ数分続く…</t>
     <rPh sb="1" eb="4">
-      <t>ケイサンシキ</t>
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>スウ</t>
@@ -84,9 +73,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算式参照データ[n]</t>
+    <t>T_STRING_REF[n]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列参照データ[n]</t>
     <rPh sb="0" eb="3">
-      <t>ケイサンシキ</t>
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>サンショウ</t>
@@ -94,13 +87,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>T_STRING_REF[n]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>計算式の実データ位置のオフセット　※計算式データ部のトップからのオフセット</t>
+    <t>文字列の実データ位置のオフセット　※文字列データ部のトップからのオフセット</t>
     <rPh sb="0" eb="3">
-      <t>ケイサンシキ</t>
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>ジツ</t>
@@ -109,7 +98,7 @@
       <t>イチ</t>
     </rPh>
     <rPh sb="18" eb="21">
-      <t>ケイサンシキ</t>
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="24" eb="25">
       <t>ブ</t>
@@ -136,6 +125,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>char[n][]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※文字列は可変長データ</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カヘンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>u8[]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -157,64 +160,218 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（T_EXPR型の構造については別途記述）</t>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(4 + ?)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列のCRC値　※検索／重複定義検出用</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
     <rPh sb="7" eb="8">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ケンシュツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　メモリ使用量削減のためにも、この情報は最後に削除する。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列データサイズ</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　同じ内容のデータを二重定義せずに共通利用するためのものであるため、ランタイム時には使用されない。</t>
+    <rPh sb="1" eb="2">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤く着色した部分は検索用情報。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全ての文字列データを収集して、文字列データ部の内容が確定した後は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不要。</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チャクショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケンサクヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※最後のパディングは含まないサイズ。</t>
+    <rPh sb="1" eb="3">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※データ構造に、「文字列」のデータ項目が一つも含まれない場合は、この「文字列データ部」自体が存在しない。</t>
+    <rPh sb="4" eb="6">
       <t>コウゾウ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(4 + ?)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>06：計算式データ部</t>
-    <rPh sb="3" eb="5">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シキ</t>
+    <rPh sb="9" eb="12">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06：文字列データ部：T_GDBIN_STRING</t>
+    <rPh sb="3" eb="6">
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="9" eb="10">
       <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>計算式文字列のCRC値　※検索／重複定義検出用</t>
-    <rPh sb="0" eb="3">
-      <t>ケイサンシキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ケンシュツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -223,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,21 +459,29 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="4" tint="0.59999389629810485"/>
-      <name val="ＭＳ ゴシック"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,7 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +855,35 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -792,33 +985,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,33 +1022,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -900,28 +1046,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
@@ -930,37 +1070,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -971,30 +1087,117 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1482,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1293,176 +1496,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="46">
         <v>4</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A4" s="46"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="15" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="52">
         <v>4</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>20</v>
+      <c r="G4" s="53" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="46"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="52">
         <v>4</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
+      <c r="G5" s="53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22" t="s">
-        <v>12</v>
+      <c r="A6" s="27"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31" t="s">
-        <v>7</v>
+      <c r="A8" s="27"/>
+      <c r="B8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="39" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="52"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
